--- a/task6/output3.xlsx
+++ b/task6/output3.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
+    <t>SL-13</t>
+  </si>
+  <si>
+    <t>Alexey Solin</t>
+  </si>
+  <si>
     <t>PK-12</t>
   </si>
   <si>
     <t>Dmitry Senechkin</t>
   </si>
   <si>
-    <t>SL-13</t>
-  </si>
-  <si>
     <t>Ivan Kraev</t>
-  </si>
-  <si>
-    <t>Alexey Solin</t>
   </si>
   <si>
     <t>HK-47</t>
@@ -377,7 +377,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>35</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -388,18 +388,18 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>28.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>40.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
